--- a/animal_shelter.xlsx
+++ b/animal_shelter.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K502"/>
+  <dimension ref="A1:K503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,11 +1005,13 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>44736</v>
+          <t>sick</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -24044,6 +24046,55 @@
         </is>
       </c>
       <c r="K502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Kingo</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>hamster</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Cinnamon Syrian</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>3</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Neutered</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="K503" t="n">
         <v>1</v>
       </c>
     </row>
